--- a/target/classes/com/clinic/testData/Test_Data.xlsx
+++ b/target/classes/com/clinic/testData/Test_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUY.NX183556\java\eclipse\workspace\DoAn_2023\src\main\java\com\clinic\testData\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -32,33 +32,30 @@
     <t>TestCaseName</t>
   </si>
   <si>
+    <t>UserName</t>
+  </si>
+  <si>
     <t>PassWord</t>
   </si>
   <si>
     <t>Results</t>
   </si>
   <si>
+    <t>Browser</t>
+  </si>
+  <si>
     <t>SignIn_TC1</t>
   </si>
   <si>
-    <t>Đăng nhập khi nhập user,pass nhỏ hơn 30 ký tự</t>
-  </si>
-  <si>
-    <t>HuongNguyen</t>
+    <t>Mozilla</t>
   </si>
   <si>
     <t>SignIn_TC2</t>
   </si>
   <si>
-    <t>Đăng nhập khi để trống user,pass</t>
-  </si>
-  <si>
     <t>SignIn_TC3</t>
   </si>
   <si>
-    <t>Đăng nhập khi để trống user</t>
-  </si>
-  <si>
     <t>SignIn_TC4</t>
   </si>
   <si>
@@ -68,53 +65,40 @@
     <t>SignIn_TC5</t>
   </si>
   <si>
-    <t>Đăng nhập khi user,pass nhập lớn hơn 30 ký tự</t>
-  </si>
-  <si>
-    <t>nguyenthihuongnguyenthihuongnghuong</t>
-  </si>
-  <si>
     <t>SignIn_TC6</t>
   </si>
   <si>
-    <t>Đăng nhập khi user,pass nhập bằng hơn 30 ký tự</t>
-  </si>
-  <si>
-    <t>nguyenthihuongnguyenthihuongnu</t>
-  </si>
-  <si>
-    <t>SignIn_TC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra giao diện </t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Mozila</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>test@example.com</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Đăng nhập đúng email và password</t>
+  </si>
+  <si>
+    <t>xuanhuynguyen0308@gmail.com</t>
+  </si>
+  <si>
+    <t>Huy163173491@</t>
+  </si>
+  <si>
+    <t>Đăng nhập khi để trống email,pass</t>
+  </si>
+  <si>
+    <t>Đăng nhập khi để trống email</t>
+  </si>
+  <si>
+    <t>Đăng nhập khi sai email</t>
+  </si>
+  <si>
+    <t>xuanhuynguyenxuan0308@gmail.com</t>
+  </si>
+  <si>
+    <t>Đăng nhập khi sai pass</t>
+  </si>
+  <si>
+    <t>Huy1631734911234@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,6 +130,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,35 +177,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -504,162 +491,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>21</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>22</v>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="7">
-        <v>5071995</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>22</v>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>22</v>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
-        <v>22</v>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="D7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/target/classes/com/clinic/testData/Test_Data.xlsx
+++ b/target/classes/com/clinic/testData/Test_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUY.NX183556\java\eclipse\workspace\DoAn_2023\src\main\java\com\clinic\testData\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -93,12 +93,16 @@
   </si>
   <si>
     <t>Huy1631734911234@</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -199,9 +203,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -494,17 +495,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -540,7 +541,9 @@
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
@@ -553,8 +556,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
@@ -567,10 +572,12 @@
         <v>18</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
@@ -585,8 +592,10 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
@@ -601,10 +610,12 @@
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
@@ -619,10 +630,12 @@
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
